--- a/NformTester/NformTester/Keywordscripts/900.10.010_CheckGUIOfTrendGraph.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.10.010_CheckGUIOfTrendGraph.xlsx
@@ -4374,14 +4374,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="9.75" customWidth="1"/>
     <col min="5" max="5" width="42.125" customWidth="1"/>
     <col min="6" max="6" width="26.625" customWidth="1"/>

--- a/NformTester/NformTester/Keywordscripts/900.10.010_CheckGUIOfTrendGraph.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.10.010_CheckGUIOfTrendGraph.xlsx
@@ -3761,64 +3761,64 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Equal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Script Info</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Script Data</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Object</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Nform\\bin\\NformViewer.exe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Author</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alex</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Date</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update Date</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>$SNMP_device_0$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Script Info</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Script Data</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Object</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\\Nform\\bin\\NformViewer.exe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Author</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alex</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Version</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Date</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Update Date</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Result</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3864,6 +3864,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3894,6 +3895,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4005,7 +4007,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4060,6 +4062,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4374,8 +4377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4393,10 +4396,10 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="12" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>40</v>
@@ -4438,10 +4441,10 @@
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="13" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -4463,10 +4466,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="13" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -4498,10 +4501,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="13" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -4529,7 +4532,7 @@
     </row>
     <row r="5" spans="1:15" ht="15">
       <c r="A5" s="13" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B5" s="17">
         <v>41793</v>
@@ -4554,10 +4557,10 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="13" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -4575,11 +4578,11 @@
       <c r="H6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>831</v>
+      <c r="I6" s="22" t="s">
+        <v>843</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>844</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>74</v>
@@ -4649,7 +4652,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="13" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="3">
@@ -4698,8 +4701,8 @@
       <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>831</v>
+      <c r="H10" s="22" t="s">
+        <v>844</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4985,8 +4988,8 @@
       <c r="H20" s="7">
         <v>2</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>831</v>
+      <c r="I20" s="22" t="s">
+        <v>844</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -5102,7 +5105,7 @@
         <v>86</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="J24" s="7" t="b">
         <v>1</v>
@@ -5294,7 +5297,7 @@
         <v>83</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="J32" s="7" t="b">
         <v>1</v>
@@ -5645,7 +5648,7 @@
         <v>83</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="J45" s="7" t="b">
         <v>0</v>
@@ -5676,7 +5679,7 @@
         <v>83</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="J46" s="7" t="b">
         <v>1</v>
@@ -27262,39 +27265,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="13" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="13" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="13" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B5" s="17">
         <v>41793</v>
@@ -27302,10 +27305,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="13" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -27324,7 +27327,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="13" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B9" s="15"/>
     </row>
